--- a/Import-template-dolphin{anty}.xlsx
+++ b/Import-template-dolphin{anty}.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djohnson\Code\xlsx-populate\lib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alekra1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961AB83A-6FFA-448A-B32A-015071E009C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="10320" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,69 +25,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t xml:space="preserve">Profile name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cookie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proxy type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proxy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example. Available formats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">json\netscape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http/https/socks5/ssh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.0.1:8000:login:password
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+  <si>
+    <t>Profile name</t>
+  </si>
+  <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t>Proxy type</t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>User Agent</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Example. Available formats</t>
+  </si>
+  <si>
+    <t>192.168.0.1:8000:login:password
 login:password@host:port</t>
   </si>
   <si>
-    <t xml:space="preserve">Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/92.0.4515.131 Safari/537.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note if you need it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facebook account 1 (example)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[{""domain"":"".facebook.com"",""expirationDate"":1692469520560,""httpOnly"":true,""name"":""sb"",""path"":""/"",""secure"":true,""value"":""weYaXj96SkoGXcJKre4xHi2M""},{""domain"":"".facebook.com"",""expirationDate"":1692469493000,""httpOnly"":true,""name"":""datr"",""path"":""/"",""secure"":true,""value"":""wXceYeyAK0njUboSvIIAUzdF""},{""domain"":"".atdmt.com"",""expirationDate"":1692469496000,""httpOnly"":true,""name"":""ATN"",""path"":""/"",""secure"":true,""value"":""1.162902996695.865838033017.AYLjiKZmOgha8BS1tEU""},{""domain"":"".facebook.com"",""expirationDate"":1660933789000,""httpOnly"":true,""name"":""c_user"",""path"":""/"",""secure"":true,""value"":""10801063717""},{""domain"":"".facebook.com"",""expirationDate"":0,""httpOnly"":true,""name"":""m_pixel_ratio"",""path"":""/"",""secure"":true,""value"":""1""},{""domain"":"".facebook.com"",""expirationDate"":1660933709008,""httpOnly"":true,""name"":""xs"",""path"":""/"",""secure"":true,""value"":""10%3AmCmJ8MIjlbhNqQ%3A2%3A1629386760%3A-1%3A-1%3A%3AAcXPqBlEAPsO0xiUTP-XMRZ69B3qEkL3syovcYvSig""},{""domain"":"".facebook.com"",""expirationDate"":1637173788000,""httpOnly"":true,""name"":""fr"",""path"":""/"",""secure"":true,""value"":""19ndKIS10s0S1MMba.ehXYNULmzWU-yqo.BhHnju.i9.AAA.0.0.BhHnju.AWXJJbCmcJw""},{""domain"":"".facebook.com"",""expirationDate"":0,""httpOnly"":true,""name"":""x-3aAehXYNUL.AAA.0.0.BhHnju.AWXJJbCmcJw""},{""domain"":"".facebook.com"",""expirationDate"":0,""httpOnly"":true,""name"":""x-referer"",""path"":""/"",""secure"":true,""value"":""eyJyIjoiL3Byb2ZpbGUucGhwP21kcz0lMkZ0aW1lbGluZSUyRmNvdmVyJTJGZGlhbG9nJTJGJTNGcmVkaXJlY3RfdXJpJTNEJTI1MkZwcm9maWxlLnBocCUyNTNGbHN0JTI1M0QxMDAwNzE2MzA3ODAxOTclMjMjkzODczMDBMTAwMDcxNjMwNzgMjkzODczMD2ZUzQTE2MjkzODczMDDAiLpbGUucGhwP21kcz0lMkZ0aW1CJoIjoiL3Byb2ZlbGluZSUyRmNvdmVyJTJGZCJoIjoiL3Byb2ZnJTJGJTNGcmVkaXJlY3RfdXJpJTNEJTI1MkZwcm9maWxlLnBocCUyNTNGbHN0JCJoIjoiL3Byb2ZNzE2MzA3ODAxOTclMjUyNTNBMTAwMDcxCJoIjoiL3Byb2ZTk3JTI1MjUzQTE2AiLCJzIjoibSJ9""},{""domain"":"".facebook.com"",""expirationDate"":1630307005000,""httpOnly"":true,""name"":""wd"",""path"":""/"",""secure"":true,""value"":""1280x800""},{""domain"":"".facebook.com"",""expirationDate"":1629470883900,""httpOnly"":true,""name"":""spin"",""path"":""/"",""secure"":true,""value"":""r.1004277933_b.trunk_t.1623899775_s.1_v.2_""}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">socks5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">info2371:ff8e4d@193.23.50.32:11266</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">some info about this profile</t>
+    <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/92.0.4515.131 Safari/537.36</t>
+  </si>
+  <si>
+    <t>Facebook account 1 (example)</t>
+  </si>
+  <si>
+    <t>fast.travchisproxies.com:9090:eucekqpukjs-country-ca-sid-FGIzORAeFeIBdtMR:btkbgyzw</t>
+  </si>
+  <si>
+    <t>fast.travchisproxies.com:9090:eucekqpukjs-country-ca-sid-uBWSwGWPstJDDneU:btkbgyzw</t>
+  </si>
+  <si>
+    <t>fast.travchisproxies.com:9090:eucekqpukjs-country-ca-sid-NDoUGtcMZohNkYcx:btkbgyzw</t>
+  </si>
+  <si>
+    <t>fast.travchisproxies.com:9090:eucekqpukjs-country-ca-sid-nyQQwejnqOQWwhai:btkbgyzw</t>
+  </si>
+  <si>
+    <t>fast.travchisproxies.com:9090:eucekqpukjs-country-ca-sid-jOiEBjZOcLqcexiG:btkbgyzw</t>
+  </si>
+  <si>
+    <t>fast.travchisproxies.com:9090:eucekqpukjs-country-ca-sid-XavImLBykJFLWmkh:btkbgyzw</t>
+  </si>
+  <si>
+    <t>fast.travchisproxies.com:9090:eucekqpukjs-country-ca-sid-slDGUYHxqAaMhhtM:btkbgyzw</t>
+  </si>
+  <si>
+    <t>fast.travchisproxies.com:9090:eucekqpukjs-country-ca-sid-RVaRGesNNdluOqtJ:btkbgyzw</t>
+  </si>
+  <si>
+    <t>fast.travchisproxies.com:9090:eucekqpukjs-country-ca-sid-NSSUaCCMmdYnldVc:btkbgyzw</t>
+  </si>
+  <si>
+    <t>fast.travchisproxies.com:9090:eucekqpukjs-country-ca-sid-gLyQscdokMtdvkMO:btkbgyzw</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) Chrome/90.0.4430.85 Safari/537.36</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) Mobile/15E148 Safari/604.1</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (X11; Linux x86_64) Trident/7.0; rv:11.0</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko)</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (Android 10; Mobile; rv:88.0) Gecko/20100101 Firefox/76.0</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (Android 10; Mobile; rv:88.0) Chrome/90.0.4430.85 Safari/537.36</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (X11; Linux x86_64) AppleWebKit/537.36 (KHTML, like Gecko)</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (iPhone; CPU iPhone OS 13_4 like Mac OS X) Trident/7.0; rv:11.0</t>
+  </si>
+  <si>
+    <t>Mozilla/5.0 (iPhone; CPU iPhone OS 13_4 like Mac OS X) AppleWebKit/537.36 (KHTML, like Gecko)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts/>
-  <fonts x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,9 +130,10 @@
     <font>
       <b/>
       <sz val="18"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills>
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,11 +142,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="EAD1DC"/>
+        <fgColor rgb="FFEAD1DC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,12 +165,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf fontId="1" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -413,98 +447,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="1" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" customWidth="1"/>
+    <col min="6" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
